--- a/data/sheet/2022/Schedule_Plus_2022W07_2022-02-14_2022-02-20.xlsx
+++ b/data/sheet/2022/Schedule_Plus_2022W07_2022-02-14_2022-02-20.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,14 +554,14 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44612.00694444445</v>
+        <v>44612.00674768518</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44612.02361111111</v>
+        <v>44612.02298611111</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:24:00</t>
+          <t>00:23:23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -598,14 +598,14 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44612.02361111111</v>
+        <v>44612.02311342592</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44612.04166666666</v>
+        <v>44612.03978009259</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:24:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -641,11 +641,11 @@
         <v>44612.04166666666</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44612.04513888889</v>
+        <v>44612.045625</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:42</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -678,14 +678,14 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44612.04513888889</v>
+        <v>44612.04570601852</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44612.0625</v>
+        <v>44612.06215277778</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:41</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -717,11 +717,11 @@
         <v>44612.0625</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44612.06458333333</v>
+        <v>44612.06505787037</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:41</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -754,14 +754,14 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44612.06458333333</v>
+        <v>44612.06512731482</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44612.08333333334</v>
+        <v>44612.0824074074</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:24:53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -797,11 +797,11 @@
         <v>44612.08333333334</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44612.08680555555</v>
+        <v>44612.08734953704</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:47</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -834,14 +834,14 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44612.08680555555</v>
+        <v>44612.08743055556</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44612.10416666666</v>
+        <v>44612.10410879629</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:24:01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -873,11 +873,11 @@
         <v>44612.10416666666</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44612.10625</v>
+        <v>44612.10665509259</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:35</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -910,14 +910,14 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44612.10625</v>
+        <v>44612.10673611111</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44612.125</v>
+        <v>44612.12479166667</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:26:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -953,11 +953,11 @@
         <v>44612.125</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44612.12847222222</v>
+        <v>44612.12888888889</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -990,14 +990,14 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44612.12847222222</v>
+        <v>44612.1289699074</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44612.14583333334</v>
+        <v>44612.145625</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:59</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1029,11 +1029,11 @@
         <v>44612.14583333334</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44612.14791666667</v>
+        <v>44612.14841435185</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:43</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1066,14 +1066,14 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44612.14791666667</v>
+        <v>44612.14849537037</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44612.16666666666</v>
+        <v>44612.16597222222</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1109,11 +1109,11 @@
         <v>44612.16666666666</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44612.17013888889</v>
+        <v>44612.17091435185</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:06:07</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1146,14 +1146,14 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44612.17013888889</v>
+        <v>44612.17099537037</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44612.1875</v>
+        <v>44612.18746527778</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:43</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1189,11 +1189,11 @@
         <v>44612.1875</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44612.18958333333</v>
+        <v>44612.19</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:36</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1226,14 +1226,14 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44612.18958333333</v>
+        <v>44612.19008101852</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44612.20833333334</v>
+        <v>44612.208125</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:59</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1273,11 +1273,11 @@
         <v>44612.20833333334</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44612.21180555555</v>
+        <v>44612.21208333333</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:24</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1310,14 +1310,14 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44612.21180555555</v>
+        <v>44612.21216435185</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44612.23125</v>
+        <v>44612.22990740741</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>00:28:00</t>
+          <t>00:25:33</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1350,14 +1350,14 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44612.23125</v>
+        <v>44612.23</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44612.25</v>
+        <v>44612.24805555555</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:26:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1430,14 +1430,14 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44612.25347222222</v>
+        <v>44612.25434027778</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44612.27083333334</v>
+        <v>44612.27078703704</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:41</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1506,14 +1506,14 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44612.27361111111</v>
+        <v>44612.273125</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44612.29166666666</v>
+        <v>44612.29009259259</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:24:26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1586,14 +1586,14 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44612.29652777778</v>
+        <v>44612.29518518518</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44612.3125</v>
+        <v>44612.31185185185</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>00:23:00</t>
+          <t>00:24:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1662,14 +1662,14 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44612.31458333333</v>
+        <v>44612.3149537037</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44612.33333333334</v>
+        <v>44612.33319444444</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:26:16</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1742,14 +1742,14 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44612.33680555555</v>
+        <v>44612.33761574074</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44612.35416666666</v>
+        <v>44612.35412037037</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:46</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44612.35694444444</v>
+        <v>44612.35668981481</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44612.375</v>
+        <v>44612.37474537037</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1898,14 +1898,14 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44612.37847222222</v>
+        <v>44612.37927083333</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44612.39583333334</v>
+        <v>44612.39519675926</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:22:56</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1974,14 +1974,14 @@
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44612.39791666667</v>
+        <v>44612.39826388889</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44612.41666666666</v>
+        <v>44612.41554398148</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:24:53</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2054,14 +2054,14 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44612.42152777778</v>
+        <v>44612.42052083334</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44612.45833333334</v>
+        <v>44612.43707175926</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:23:50</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2111,16 +2111,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17607891</v>
+        <v>17734549</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Leonardo Plus</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2130,37 +2130,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Prakticky všechny země hledají v souvislosti s ustupující kornavirovou pandemií tzv. postcovidový normál. V Česku se to potkává i s transformací ekonomiky směrem k té s vyšší přidanou hodnotou. Jak tuto evoluci ovlivňují aktuální problémy v podobě vysoké inflace a třeba i geopolitických hrozeb? Václav Pešička se bude v Leonardu Plus ptát filozofa a ekonoma Tomáše Sedláčka.</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44612.45833333334</v>
+        <v>44612.43990740741</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44612.46231481482</v>
+        <v>44612.45765046297</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>00:05:44</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>00:25:33</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>({'id': 5003265, 'name': 'Václav Pešička'},)</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17607892</v>
+        <v>17607891</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Téma Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2170,37 +2174,37 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Skutečným fenoménem 70. a 80. let minulého století byla u nás polská a maďarská rocková hudba. Byla opravdu jen náhražkou za nedostupnou hudbu západní? Nejen nad tím se zamýšlí Vít Pohanka a jeho hosté v pořadu Téma Plus.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44612.46319444444</v>
+        <v>44612.45833333334</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44612.5</v>
+        <v>44612.46231481482</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:05:44</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17607895</v>
+        <v>17607892</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hlavní zprávy</t>
+          <t>Téma Plus</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2210,28 +2214,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Zpravodajský souhrn</t>
+          <t>Skutečným fenoménem 70. a 80. let minulého století byla u nás polská a maďarská rocková hudba. Byla opravdu jen náhražkou za nedostupnou hudbu západní? Nejen nad tím se zamýšlí Vít Pohanka a jeho hosté v pořadu Téma Plus.</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44612.5</v>
+        <v>44612.46231481482</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44612.50694444445</v>
+        <v>44612.49958333333</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:53:40</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>17607896</v>
+        <v>17607895</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2240,7 +2244,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hlavní zprávy - rozhovory, komentáře</t>
+          <t>Hlavní zprávy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2250,18 +2254,18 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Události dne v rozhovorech s aktéry a komentátory</t>
+          <t>Zpravodajský souhrn</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
+        <v>44612.5</v>
+      </c>
+      <c r="G46" s="2" t="n">
         <v>44612.50694444445</v>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>44612.52083333334</v>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>00:20:00</t>
+          <t>00:10:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2271,7 +2275,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17607897</v>
+        <v>17607896</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2280,7 +2284,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Hlavní zprávy - rozhovory, komentáře</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2288,16 +2292,20 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Události dne v rozhovorech s aktéry a komentátory</t>
+        </is>
+      </c>
       <c r="F47" s="2" t="n">
+        <v>44612.50694444445</v>
+      </c>
+      <c r="G47" s="2" t="n">
         <v>44612.52083333334</v>
       </c>
-      <c r="G47" s="2" t="n">
-        <v>44612.52310185185</v>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>00:03:16</t>
+          <t>00:20:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2307,16 +2315,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17607898</v>
+        <v>17607897</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Za obzorem</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2324,39 +2332,35 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Situace v Burkině Faso. Připravila Kateřina Havlíková.</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" s="2" t="n">
-        <v>44612.52291666667</v>
+        <v>44612.52083333334</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44612.54166666666</v>
+        <v>44612.52310185185</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:03:16</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17607899</v>
+        <v>17607898</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Za obzorem</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2366,37 +2370,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Situace v Burkině Faso. Připravila Kateřina Havlíková.</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44612.54166666666</v>
+        <v>44612.52310185185</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44612.54545138889</v>
+        <v>44612.54098379629</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>00:05:27</t>
+          <t>00:25:45</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17607900</v>
+        <v>17607899</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Svět ve 20 minutách</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2406,18 +2410,18 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Výběr komentářů, analýz a reportáží zahraničních médií. Stane se zkapalněný zemní plyn ze Spojených států řešením německé závislosti na Rusku? Bude digitální jüan v Číně klíčovým prvkem pro sledování tamních obyvatel? K čemu povede zákaz reklamy na tabákové výrobky, který si Švýcarsko schválilo v referendu? A proč je výrazné rozšiřování rostlin v Antarktidě špatnou zprávou o stavu tohoto kontinentu?</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44612.54513888889</v>
+        <v>44612.54166666666</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44612.5625</v>
+        <v>44612.54545138889</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:05:27</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -2427,16 +2431,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17607901</v>
+        <v>17607900</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Svět ve 20 minutách</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2444,16 +2448,20 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Výběr komentářů, analýz a reportáží zahraničních médií. Stane se zkapalněný zemní plyn ze Spojených států řešením německé závislosti na Rusku? Bude digitální jüan v Číně klíčovým prvkem pro sledování tamních obyvatel? K čemu povede zákaz reklamy na tabákové výrobky, který si Švýcarsko schválilo v referendu? A proč je výrazné rozšiřování rostlin v Antarktidě špatnou zprávou o stavu tohoto kontinentu?</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="n">
-        <v>44612.5625</v>
+        <v>44612.54545138889</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44612.56505787037</v>
+        <v>44612.56175925926</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>00:03:41</t>
+          <t>00:23:29</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -2463,16 +2471,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>17607902</v>
+        <v>17607901</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Názory a argumenty</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2480,43 +2488,35 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Velká Británie se v současné krizi kolem Ukrajiny staví velmi ostře proti Rusku. Jaké jsou Meze dialogu mezi světovými bloky. Prezident Miloš Zeman v Poslanecké sněmovně k rozpočtu neřekl nic nového. Česká opozice musí vládu za pandemický zákon milovat. To jsou některé titulky našeho komentářového pořadu. Moderuje Radko Kubičko.</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" s="2" t="n">
-        <v>44612.56527777778</v>
+        <v>44612.5625</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44612.58333333334</v>
+        <v>44612.56505787037</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>00:26:00</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>({'id': 5000931, 'name': 'Radko Kubičko'},)</t>
-        </is>
-      </c>
+          <t>00:03:41</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17607903</v>
+        <v>17607902</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Názory a argumenty</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2526,37 +2526,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Velká Británie se v současné krizi kolem Ukrajiny staví velmi ostře proti Rusku. Jaké jsou Meze dialogu mezi světovými bloky. Prezident Miloš Zeman v Poslanecké sněmovně k rozpočtu neřekl nic nového. Česká opozice musí vládu za pandemický zákon milovat. To jsou některé titulky našeho komentářového pořadu. Moderuje Radko Kubičko.</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44612.58333333334</v>
+        <v>44612.56505787037</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44612.58699074074</v>
+        <v>44612.58274305556</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>00:05:16</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>00:25:28</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>({'id': 5000931, 'name': 'Radko Kubičko'},)</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17607904</v>
+        <v>17607903</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Reportáže zahraničních zpravodajů</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2566,18 +2570,18 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Panství nedaleko Paříže upomíná na dobu impresionistů. Východoukrajinský přístav Mariupol je místem tisícileté kultury a pestrým etnickým složením. Nejrušnější místo v Bělehradě? Tamní trh, i tam vás zavedou Reportáže zahraničních zpravodajů a Lubica Bergmanová.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44612.58680555555</v>
+        <v>44612.58333333334</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44612.60416666666</v>
+        <v>44612.58699074074</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:05:16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -2587,16 +2591,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>17607905</v>
+        <v>17607904</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Reportáže zahraničních zpravodajů</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2604,16 +2608,20 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Panství nedaleko Paříže upomíná na dobu impresionistů. Východoukrajinský přístav Mariupol je místem tisícileté kultury a pestrým etnickým složením. Nejrušnější místo v Bělehradě? Tamní trh, i tam vás zavedou Reportáže zahraničních zpravodajů a Lubica Bergmanová.</t>
+        </is>
+      </c>
       <c r="F55" s="2" t="n">
-        <v>44612.60416666666</v>
+        <v>44612.58699074074</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44612.60679398148</v>
+        <v>44612.60365740741</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>00:03:47</t>
+          <t>00:24:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -2623,16 +2631,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17607906</v>
+        <v>17607905</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dokument</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2640,39 +2648,35 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Potřetí se dnes vypravíme do devadesátých let minulého století a uslyšíte pokračování příběhu jednoho z tehdejších bossů podsvětí Antonína Běly a hlavně jeho manželky Marie. Její vyprávění zaznamenala v dokumentární sérii Té noci pes neštěkal dokumentariska Bronislava Janečková. Poslední díl popíše vraždu Antonína Běly a to, co se dělo po ní.</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" s="2" t="n">
-        <v>44612.60694444444</v>
+        <v>44612.60416666666</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44612.625</v>
+        <v>44612.60679398148</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:03:47</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17607907</v>
+        <v>17607906</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Dokument</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2682,37 +2686,37 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Potřetí se dnes vypravíme do devadesátých let minulého století a uslyšíte pokračování příběhu jednoho z tehdejších bossů podsvětí Antonína Běly a hlavně jeho manželky Marie. Její vyprávění zaznamenala v dokumentární sérii Té noci pes neštěkal dokumentariska Bronislava Janečková. Poslední díl popíše vraždu Antonína Běly a to, co se dělo po ní.</t>
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44612.625</v>
+        <v>44612.60702546296</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44612.62986111111</v>
+        <v>44612.6246875</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>00:07:00</t>
+          <t>00:25:26</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17607908</v>
+        <v>17607907</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Odpolední Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2722,41 +2726,37 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mnichovská bezpečnostní konference se letos vedla v jednotném duchu - všichni zúčastnění nabádali Rusko, aby zasedlo k vyjednávacím stolům a vyhnulo se dalším sporům s Ukrajinou. Napětí se promítlo i do programu celé akce - Moskva totiž letošní ročník bojkotovala. Thruth social - to je název nové sociální sítě bývalého amerického prezidenta Donalda Trumpa. Co mají společného dřevění koně, autíčka, rytíři a orchestrion? Zdánlivě nic, ale všechny tyto věci budou pohromadě v historickém kolotoči na pražské Letné. Unikátní atrakci teď opravují restaurátoři. A nedostatek odborných pracovníků nebo složité příjímání zaměstnanců ze zahraničí. To jsou některé z problémů, které teď trápí český herní průmysl. Na druhou stranu v Česku vzniklo v posledních letech několik vysokoškolských oborů, které se soustředí na herní vývoj. Ze separatistických republik na východě Ukrajiny úřady evakuovaly do Ruska tisíce lidí. Reagovaly tak na stupňující se napětí na rusko-ukrajinských hranicích. Separatisté a ukrajinská armáda se vzájemně obviňují z desítek případů porušování příměří jen za poslední den. Služba na urgentních příjmech bývá často náročná, zvlášť v sociálně vyloučených lokalitách. V Ústí nad Labem umisťují nebezpečné pacienty na tzv. kanálek. Podle průzkumů veřejného mínění má největší šanci na to stát se příštím prezidentem Filipín syn někdejšího diktátora. Může jeho vyhlídkami na zvolení otřást nadcházející výročí revoluce, která jeho otce svrhla a v zemi obnovila demokracii? V rubrice Výrok týdne se budeme věnovat slovům ruského ministra zahraničí Sergeje Lavrova. Moderuje Lucie Vopálenská.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44612.62986111111</v>
+        <v>44612.625</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44612.66666666666</v>
+        <v>44612.62891203703</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>00:53:00</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>({'id': 5003886, 'name': 'Lucie Vopálenská'},)</t>
-        </is>
-      </c>
+          <t>00:05:38</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17607909</v>
+        <v>17607908</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Odpolední Plus</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2764,26 +2764,34 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Mnichovská bezpečnostní konference se letos vedla v jednotném duchu - všichni zúčastnění nabádali Rusko, aby zasedlo k vyjednávacím stolům a vyhnulo se dalším sporům s Ukrajinou. Napětí se promítlo i do programu celé akce - Moskva totiž letošní ročník bojkotovala. Thruth social - to je název nové sociální sítě bývalého amerického prezidenta Donalda Trumpa. Co mají společného dřevění koně, autíčka, rytíři a orchestrion? Zdánlivě nic, ale všechny tyto věci budou pohromadě v historickém kolotoči na pražské Letné. Unikátní atrakci teď opravují restaurátoři. A nedostatek odborných pracovníků nebo složité příjímání zaměstnanců ze zahraničí. To jsou některé z problémů, které teď trápí český herní průmysl. Na druhou stranu v Česku vzniklo v posledních letech několik vysokoškolských oborů, které se soustředí na herní vývoj. Ze separatistických republik na východě Ukrajiny úřady evakuovaly do Ruska tisíce lidí. Reagovaly tak na stupňující se napětí na rusko-ukrajinských hranicích. Separatisté a ukrajinská armáda se vzájemně obviňují z desítek případů porušování příměří jen za poslední den. Služba na urgentních příjmech bývá často náročná, zvlášť v sociálně vyloučených lokalitách. V Ústí nad Labem umisťují nebezpečné pacienty na tzv. kanálek. Podle průzkumů veřejného mínění má největší šanci na to stát se příštím prezidentem Filipín syn někdejšího diktátora. Může jeho vyhlídkami na zvolení otřást nadcházející výročí revoluce, která jeho otce svrhla a v zemi obnovila demokracii? V rubrice Výrok týdne se budeme věnovat slovům ruského ministra zahraničí Sergeje Lavrova. Moderuje Lucie Vopálenská.</t>
+        </is>
+      </c>
       <c r="F59" s="2" t="n">
-        <v>44612.64583333334</v>
+        <v>44612.62891203703</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44612.64791666667</v>
+        <v>44612.66666666666</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>00:03:00</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>00:54:22</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>({'id': 5003886, 'name': 'Lucie Vopálenská'},)</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>17607910</v>
+        <v>17607909</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2792,7 +2800,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2800,20 +2808,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Aktuální události doma i ve světě</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" s="2" t="n">
-        <v>44612.66666666666</v>
+        <v>44612.64583333334</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44612.67152777778</v>
+        <v>44612.64831018518</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>00:07:00</t>
+          <t>00:03:34</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -2823,16 +2827,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>17607911</v>
+        <v>17607910</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Odpolední Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2842,41 +2846,37 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Na Ukrajině si dnes připomínají památku více než stovky obětí střetů na kyjevském Majdanu v roce 2014. Z východu země do toho zaznívá obnovená válka. Škodlivý benzoapyren se do vzduchu dostává při topení hlavně ve starých kotlích. Změřit jeho koncentraci v ovzduší je ale složitá operace. Frontman skupiny Nirvana Kurt Cobain by se dnes dožil pětapadesáti let. Hry bez atmosféry, ale na druhou stranu životní zážitek a zbytečné obavy z vrcholné akce v Číně. Třeba i tak budou vzpomínat čeští sportovci na zimní olympiádu v Pekingu. A na pražském Klárově, pár kroků od stanice metra Malostranská, leží místo, kde se propojuje elektřina s uměním. A právě tam vznikla nová galerie - Kunsthalle Praha. Moderuje Lucie Vopálenská.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44612.67152777778</v>
+        <v>44612.66666666666</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44612.6875</v>
+        <v>44612.67050925926</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>00:23:00</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>({'id': 5003886, 'name': 'Lucie Vopálenská'},)</t>
-        </is>
-      </c>
+          <t>00:05:32</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17607912</v>
+        <v>17607911</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Odpolední Plus</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2884,35 +2884,43 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Na Ukrajině si dnes připomínají památku více než stovky obětí střetů na kyjevském Majdanu v roce 2014. Z východu země do toho zaznívá obnovená válka. Škodlivý benzoapyren se do vzduchu dostává při topení hlavně ve starých kotlích. Změřit jeho koncentraci v ovzduší je ale složitá operace. Frontman skupiny Nirvana Kurt Cobain by se dnes dožil pětapadesáti let. Hry bez atmosféry, ale na druhou stranu životní zážitek a zbytečné obavy z vrcholné akce v Číně. Třeba i tak budou vzpomínat čeští sportovci na zimní olympiádu v Pekingu. A na pražském Klárově, pár kroků od stanice metra Malostranská, leží místo, kde se propojuje elektřina s uměním. A právě tam vznikla nová galerie - Kunsthalle Praha. Moderuje Lucie Vopálenská.</t>
+        </is>
+      </c>
       <c r="F62" s="2" t="n">
+        <v>44612.67050925926</v>
+      </c>
+      <c r="G62" s="2" t="n">
         <v>44612.6875</v>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>44612.68993055556</v>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>00:03:30</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>00:24:28</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>({'id': 5003886, 'name': 'Lucie Vopálenská'},)</t>
+        </is>
+      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>17607913</v>
+        <v>17607912</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Evropa Plus</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2920,20 +2928,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Odchod Velké Británie stále vyvolává diskuse. nejvíc se mluví o severoirském protokolu brexitové smlouvy. O tom, co to znamená a jak se současná situace odráží v dění v samotném Severním Irsku, o tom je Evropa Plus. Připravil ji Filip Nerad.</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" s="2" t="n">
-        <v>44612.69027777778</v>
+        <v>44612.6875</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44612.70833333334</v>
+        <v>44612.68993055556</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:03:30</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -2943,16 +2947,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>17607915</v>
+        <v>17607913</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Evropa Plus</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2962,18 +2966,18 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Odchod Velké Británie stále vyvolává diskuse. nejvíc se mluví o severoirském protokolu brexitové smlouvy. O tom, co to znamená a jak se současná situace odráží v dění v samotném Severním Irsku, o tom je Evropa Plus. Připravil ji Filip Nerad.</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44612.70833333334</v>
+        <v>44612.68993055556</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44612.71226851852</v>
+        <v>44612.70755787037</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>00:05:40</t>
+          <t>00:25:23</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -2983,16 +2987,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>17607914</v>
+        <v>17607915</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Odpolední Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3002,41 +3006,37 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Klesá a klesá. Řeč je o zájmu o očkování. Proč na ně chodí stále méně a méně lidí? A jak na to reagují kraje? K invazi ruských vojsk na Ukrajinu má dojít v nejbližších dnech - prohlašují americký prezident či britský premiér. Co by tím Moskva získala? Dětem z devátých tříd zbývá zhruba týden na podání přihlášky na střední školu nebo učiliště. Třeba většina z 90 vycházejících žáků z jedné pardubické základky už přihlášky odeslala. Kam nejčastěji? Sexuální zneužívání dětí duchovními katolické církve se čím dál více řeší i ve Španělsku. Moderuje Lucie Vopálenská.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
+        <v>44612.70833333334</v>
+      </c>
+      <c r="G65" s="2" t="n">
         <v>44612.71226851852</v>
       </c>
-      <c r="G65" s="2" t="n">
-        <v>44612.7268287037</v>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>00:20:58</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>({'id': 5003886, 'name': 'Lucie Vopálenská'},)</t>
-        </is>
-      </c>
+          <t>00:05:40</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>17607916</v>
+        <v>17607914</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Odpolední Plus</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3044,35 +3044,43 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Klesá a klesá. Řeč je o zájmu o očkování. Proč na ně chodí stále méně a méně lidí? A jak na to reagují kraje? K invazi ruských vojsk na Ukrajinu má dojít v nejbližších dnech - prohlašují americký prezident či britský premiér. Co by tím Moskva získala? Dětem z devátých tříd zbývá zhruba týden na podání přihlášky na střední školu nebo učiliště. Třeba většina z 90 vycházejících žáků z jedné pardubické základky už přihlášky odeslala. Kam nejčastěji? Sexuální zneužívání dětí duchovními katolické církve se čím dál více řeší i ve Španělsku. Moderuje Lucie Vopálenská.</t>
+        </is>
+      </c>
       <c r="F66" s="2" t="n">
-        <v>44612.72929398148</v>
+        <v>44612.71226851852</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44612.73178240741</v>
+        <v>44612.7268287037</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>00:03:35</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>00:20:58</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>({'id': 5003886, 'name': 'Lucie Vopálenská'},)</t>
+        </is>
+      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>17607917</v>
+        <v>17607916</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Zaostřeno</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3080,20 +3088,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Český herní průmysl v posledních letech roste a potřebuje další pracovní síly. Je jich dostatek? A jak na to reagují vysoké školy? Otázky pro pořad Martina Hrnčíře.</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" s="2" t="n">
-        <v>44612.73194444444</v>
+        <v>44612.72929398148</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44612.75</v>
+        <v>44612.73178240741</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:03:35</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -3103,16 +3107,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>17607918</v>
+        <v>17607917</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hlavní zprávy</t>
+          <t>Zaostřeno</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3122,18 +3126,18 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Zpravodajský souhrn</t>
+          <t>Český herní průmysl v posledních letech roste a potřebuje další pracovní síly. Je jich dostatek? A jak na to reagují vysoké školy? Otázky pro pořad Martina Hrnčíře.</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44612.75</v>
+        <v>44612.73178240741</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44612.75688657408</v>
+        <v>44612.74886574074</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>00:09:55</t>
+          <t>00:24:36</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -3143,16 +3147,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>17607919</v>
+        <v>17607918</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Čekání na prezidenta</t>
+          <t>Hlavní zprávy</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3162,18 +3166,18 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Přišel čas na to, aby na pražský Hrad byla zvolena žena? A je vůbec v pořádku se takto ptát? Proč vlastně není žen v politice víc? A proč jich dosud na post hlavy státu kandidovalo tak málo? V podcastu Čekání na prezidenta o tom diskutují moderátor Jan Pokorný, ústavní právník Jan Kysela, filozofka Tereza Matějíčková a komentátor ČRo Petr Nováček.</t>
+          <t>Zpravodajský souhrn</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44612.75694444445</v>
+        <v>44612.75</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44612.78472222222</v>
+        <v>44612.75688657408</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>00:40:00</t>
+          <t>00:09:55</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3183,7 +3187,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>17607921</v>
+        <v>17607919</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3192,7 +3196,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Názory a argumenty</t>
+          <t>Čekání na prezidenta</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3202,18 +3206,18 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Den pohledem renomovaných komentátorů ve zkrácené verzi.</t>
+          <t>Přišel čas na to, aby na pražský Hrad byla zvolena žena? A je vůbec v pořádku se takto ptát? Proč vlastně není žen v politice víc? A proč jich dosud na post hlavy státu kandidovalo tak málo? V podcastu Čekání na prezidenta o tom diskutují moderátor Jan Pokorný, ústavní právník Jan Kysela, filozofka Tereza Matějíčková a komentátor ČRo Petr Nováček.</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44612.78472222222</v>
+        <v>44612.75696759259</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44612.79166666666</v>
+        <v>44612.78094907408</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:34:32</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3223,16 +3227,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17607922</v>
+        <v>17607921</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Názory a argumenty</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3242,18 +3246,18 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Den pohledem renomovaných komentátorů ve zkrácené verzi.</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44612.79166666666</v>
+        <v>44612.78094907408</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44612.79605324074</v>
+        <v>44612.79059027778</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>00:06:19</t>
+          <t>00:13:53</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3263,16 +3267,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>17607923</v>
+        <v>17607922</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Svět ve 20 minutách</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3282,37 +3286,37 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Výběr komentářů, analýz a reportáží zahraničních médií. Stane se zkapalněný zemní plyn ze Spojených států řešením německé závislosti na Rusku? Bude digitální jüan v Číně klíčovým prvkem pro sledování tamních obyvatel? K čemu povede zákaz reklamy na tabákové výrobky, který si Švýcarsko schválilo v referendu? A proč je výrazné rozšiřování rostlin v Antarktidě špatnou zprávou o stavu tohoto kontinentu?</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44612.79652777778</v>
+        <v>44612.79166666666</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44612.8125</v>
+        <v>44612.79605324074</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>00:23:00</t>
+          <t>00:06:19</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>17607924</v>
+        <v>17607923</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Svět ve 20 minutách</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3320,35 +3324,39 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Výběr komentářů, analýz a reportáží zahraničních médií. Stane se zkapalněný zemní plyn ze Spojených států řešením německé závislosti na Rusku? Bude digitální jüan v Číně klíčovým prvkem pro sledování tamních obyvatel? K čemu povede zákaz reklamy na tabákové výrobky, který si Švýcarsko schválilo v referendu? A proč je výrazné rozšiřování rostlin v Antarktidě špatnou zprávou o stavu tohoto kontinentu?</t>
+        </is>
+      </c>
       <c r="F73" s="2" t="n">
-        <v>44612.8125</v>
+        <v>44612.79613425926</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44612.81559027778</v>
+        <v>44612.81244212963</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>00:04:27</t>
+          <t>00:23:29</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>17607925</v>
+        <v>17607924</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2x2</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3356,43 +3364,35 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Dvakrát dvě - to je nový pořad Českého rozhlasu Plus. Moderátor Petr Šimůnek do něj zve osobnosti českého byznysu, ale i mladé podnikatele, kteří mohou ostatní inspirovat svými úspěchy. Dnes bude hostem Martin Wichterle z úspěšného strojírenského koncernu Wikov.</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" s="2" t="n">
-        <v>44612.81458333333</v>
+        <v>44612.8125</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44612.83333333334</v>
+        <v>44612.81559027778</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>00:27:00</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>({'id': 5002287, 'name': 'Petr Šimůnek'},)</t>
-        </is>
-      </c>
+          <t>00:04:27</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17607926</v>
+        <v>17607925</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>2x2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3402,37 +3402,41 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Dvakrát dvě - to je nový pořad Českého rozhlasu Plus. Moderátor Petr Šimůnek do něj zve osobnosti českého byznysu, ale i mladé podnikatele, kteří mohou ostatní inspirovat svými úspěchy. Dnes bude hostem Martin Wichterle z úspěšného strojírenského koncernu Wikov.</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44612.83333333334</v>
+        <v>44612.81565972222</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44612.83721064815</v>
+        <v>44612.83185185185</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>00:05:35</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>00:23:19</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>({'id': 5002287, 'name': 'Petr Šimůnek'},)</t>
+        </is>
+      </c>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>17607927</v>
+        <v>17607926</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Příběhy 20. století</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3442,18 +3446,18 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jak se dozvíte v následujících Příbězích 20. století, je dost pravděpodobné, že jsme mohli získat v padesátých letech minulého století nejvýznamnější vědecké ocenění - Nobelovu cenu za fyziku. Tedy dostat ji mohl český fyzik Miloš Lokajíček. Jenomže svůj výzkum nedokončil, protože ho zatkla Státní bezpečnost a putoval do vězení. Více Mikuláš Kroupa.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44612.83680555555</v>
+        <v>44612.83333333334</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44612.85416666666</v>
+        <v>44612.83721064815</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:05:35</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -3463,16 +3467,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>17607928</v>
+        <v>17607927</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Příběhy 20. století</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3480,16 +3484,20 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Jak se dozvíte v následujících Příbězích 20. století, je dost pravděpodobné, že jsme mohli získat v padesátých letech minulého století nejvýznamnější vědecké ocenění - Nobelovu cenu za fyziku. Tedy dostat ji mohl český fyzik Miloš Lokajíček. Jenomže svůj výzkum nedokončil, protože ho zatkla Státní bezpečnost a putoval do vězení. Více Mikuláš Kroupa.</t>
+        </is>
+      </c>
       <c r="F77" s="2" t="n">
-        <v>44612.85416666666</v>
+        <v>44612.83729166666</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44612.85674768518</v>
+        <v>44612.85366898148</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>00:03:43</t>
+          <t>00:23:35</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -3499,16 +3507,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>17715446</v>
+        <v>17607928</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Příběhy 20. století</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3516,20 +3524,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Jak se dozvíte v následujících Příbězích 20. století, je dost pravděpodobné, že jsme mohli získat v padesátých letech minulého století nejvýznamnější vědecké ocenění - Nobelovu cenu za fyziku. Tedy dostat ji mohl český fyzik Miloš Lokajíček. Jenomže svůj výzkum nedokončil, protože ho zatkla Státní bezpečnost a putoval do vězení. Více Mikuláš Kroupa.</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" s="2" t="n">
+        <v>44612.85416666666</v>
+      </c>
+      <c r="G78" s="2" t="n">
         <v>44612.85674768518</v>
       </c>
-      <c r="G78" s="2" t="n">
-        <v>44612.875</v>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>00:26:17</t>
+          <t>00:03:43</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -3539,16 +3543,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>17607929</v>
+        <v>17715446</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Příběhy 20. století</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3558,18 +3562,18 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Jak se dozvíte v následujících Příbězích 20. století, je dost pravděpodobné, že jsme mohli získat v padesátých letech minulého století nejvýznamnější vědecké ocenění - Nobelovu cenu za fyziku. Tedy dostat ji mohl český fyzik Miloš Lokajíček. Jenomže svůj výzkum nedokončil, protože ho zatkla Státní bezpečnost a putoval do vězení. Více Mikuláš Kroupa.</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44612.875</v>
+        <v>44612.85682870371</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44612.87913194444</v>
+        <v>44612.87370370371</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>00:05:57</t>
+          <t>00:24:18</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -3579,16 +3583,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>17607930</v>
+        <v>17607929</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Leonardo Plus</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3598,41 +3602,37 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Prakticky všechny země hledají v souvislosti s ustupující kornavirovou pandemií tzv. postcovidový normál. V Česku se to potkává i s transformací ekonomiky směrem k té s vyšší přidanou hodnotou. Jak tuto evoluci ovlivňují aktuální problémy v podobě vysoké inflace a třeba i geopolitických hrozeb? Václav Pešička se bude v Leonardu Plus ptát filozofa a ekonoma Tomáše Sedláčka.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44612.87847222222</v>
+        <v>44612.875</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44612.91666666666</v>
+        <v>44612.87913194444</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>00:55:00</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>({'id': 5003265, 'name': 'Václav Pešička'},)</t>
-        </is>
-      </c>
+          <t>00:05:57</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17607931</v>
+        <v>17607930</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Zprávy v půl</t>
+          <t>Leonardo Plus</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3640,26 +3640,34 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Prakticky všechny země hledají v souvislosti s ustupující kornavirovou pandemií tzv. postcovidový normál. V Česku se to potkává i s transformací ekonomiky směrem k té s vyšší přidanou hodnotou. Jak tuto evoluci ovlivňují aktuální problémy v podobě vysoké inflace a třeba i geopolitických hrozeb? Václav Pešička se bude v Leonardu Plus ptát filozofa a ekonoma Tomáše Sedláčka.</t>
+        </is>
+      </c>
       <c r="F81" s="2" t="n">
-        <v>44612.89583333334</v>
+        <v>44612.87920138889</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44612.89849537037</v>
+        <v>44612.89575231481</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>00:03:50</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>00:23:50</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>({'id': 5003265, 'name': 'Václav Pešička'},)</t>
+        </is>
+      </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17607932</v>
+        <v>17607931</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3668,7 +3676,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Zprávy v půl</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3676,20 +3684,16 @@
           <t>plus</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Aktuální události doma i ve světě</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" s="2" t="n">
-        <v>44612.91666666666</v>
+        <v>44612.89583333334</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44612.92092592592</v>
+        <v>44612.89849537037</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>00:06:08</t>
+          <t>00:03:50</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3699,7 +3703,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>17607933</v>
+        <v>17734550</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3708,7 +3712,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hovory</t>
+          <t>Leonardo Plus</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3718,37 +3722,41 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hostem Hovorů je Daniel Herman, honorární konzul Lichtenštejnského knížectví v České republice, bývalý ministr kultury a také odborník na česko-německé vztahy a bývalý katolický kněz. Mluvit bude o vyrovnávání se s minulostí na úrovni národů a států, ale také na úrovni soukromého života. Ptá se Eva Hůlková.</t>
+          <t>Prakticky všechny země hledají v souvislosti s ustupující kornavirovou pandemií tzv. postcovidový normál. V Česku se to potkává i s transformací ekonomiky směrem k té s vyšší přidanou hodnotou. Jak tuto evoluci ovlivňují aktuální problémy v podobě vysoké inflace a třeba i geopolitických hrozeb? Václav Pešička se bude v Leonardu Plus ptát filozofa a ekonoma Tomáše Sedláčka.</t>
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44612.92013888889</v>
+        <v>44612.89857638889</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44612.9375</v>
+        <v>44612.91631944444</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>00:25:00</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
+          <t>00:25:33</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>({'id': 5003265, 'name': 'Václav Pešička'},)</t>
+        </is>
+      </c>
       <c r="J83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>17607934</v>
+        <v>17607932</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Zaostřeno</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3758,37 +3766,37 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Český herní průmysl v posledních letech roste a potřebuje další pracovní síly. Je jich dostatek? A jak na to reagují vysoké školy? Otázky pro pořad Martina Hrnčíře.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44612.93958333333</v>
+        <v>44612.91666666666</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44612.95833333334</v>
+        <v>44612.92092592592</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:06:08</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>17607935</v>
+        <v>17607933</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>zpr</t>
+          <t>pub</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Zprávy</t>
+          <t>Hovory</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3798,18 +3806,18 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Aktuální události doma i ve světě</t>
+          <t>Hostem Hovorů je Daniel Herman, honorární konzul Lichtenštejnského knížectví v České republice, bývalý ministr kultury a také odborník na česko-německé vztahy a bývalý katolický kněz. Mluvit bude o vyrovnávání se s minulostí na úrovni národů a států, ale také na úrovni soukromého života. Ptá se Eva Hůlková.</t>
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44612.95833333334</v>
+        <v>44612.92103009259</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44612.96208333333</v>
+        <v>44612.93768518518</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>00:05:24</t>
+          <t>00:23:59</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3819,7 +3827,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>17607936</v>
+        <v>17607934</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3828,7 +3836,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Názory a argumenty</t>
+          <t>Zaostřeno</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3838,41 +3846,37 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Velká Británie se v současné krizi kolem Ukrajiny staví velmi ostře proti Rusku. Jaké jsou Meze dialogu mezi světovými bloky. Prezident Miloš Zeman v Poslanecké sněmovně k rozpočtu neřekl nic nového. Česká opozice musí vládu za pandemický zákon milovat. To jsou některé titulky našeho komentářového pořadu. Moderuje Radko Kubičko.</t>
+          <t>Český herní průmysl v posledních letech roste a potřebuje další pracovní síly. Je jich dostatek? A jak na to reagují vysoké školy? Otázky pro pořad Martina Hrnčíře.</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44612.96111111111</v>
+        <v>44612.93778935185</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44612.97916666666</v>
+        <v>44612.95487268519</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>00:26:00</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>({'id': 5000931, 'name': 'Radko Kubičko'},)</t>
-        </is>
-      </c>
+          <t>00:24:36</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>17607937</v>
+        <v>17607935</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>zpr</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Radiokniha</t>
+          <t>Zprávy</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3882,22 +3886,106 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Witold Szablowski: Jak nakrmit diktátora (10/15) V desátém díle se začíná číst z kapitoly Pečená koza. Seznámíme se s příběhem Otondeho Odery, kuchaře Miltona Oboteho a Idiho Amina, diktátora Ugandy, který házel své odpůrce krokodýlům. Dostaneme se tak do Afriky. Přeložila Jarmila Horáková. Pro rozhlas připravila Jaroslava Jiskrová. Dramaturgie Alena Blažejovská. V režii Lukáše Kopeckého účinkují Jiří Valůšek a Vladimír Hauser.</t>
+          <t>Aktuální události doma i ve světě</t>
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44612.98125</v>
+        <v>44612.95833333334</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44613</v>
+        <v>44612.96208333333</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:05:24</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17607936</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Názory a argumenty</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>plus</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Velká Británie se v současné krizi kolem Ukrajiny staví velmi ostře proti Rusku. Jaké jsou Meze dialogu mezi světovými bloky. Prezident Miloš Zeman v Poslanecké sněmovně k rozpočtu neřekl nic nového. Česká opozice musí vládu za pandemický zákon milovat. To jsou některé titulky našeho komentářového pořadu. Moderuje Radko Kubičko.</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>44612.9621875</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>44612.97987268519</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>00:25:28</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>({'id': 5000931, 'name': 'Radko Kubičko'},)</t>
+        </is>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17607937</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Radiokniha</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>plus</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Witold Szablowski: Jak nakrmit diktátora (10/15) V desátém díle se začíná číst z kapitoly Pečená koza. Seznámíme se s příběhem Otondeho Odery, kuchaře Miltona Oboteho a Idiho Amina, diktátora Ugandy, který házel své odpůrce krokodýlům. Dostaneme se tak do Afriky. Přeložila Jarmila Horáková. Pro rozhlas připravila Jaroslava Jiskrová. Dramaturgie Alena Blažejovská. V režii Lukáše Kopeckého účinkují Jiří Valůšek a Vladimír Hauser.</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>44612.97996527778</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>44612.99928240741</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>00:27:49</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
